--- a/BenchmarkingFramework/BenchmarkingFramework/Database/Database.xlsx
+++ b/BenchmarkingFramework/BenchmarkingFramework/Database/Database.xlsx
@@ -2329,7 +2329,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>Averate</a:t>
+              <a:t>Average</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="nl-NL" baseline="0"/>
@@ -6183,16 +6183,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6213,16 +6213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6243,16 +6243,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6273,16 +6273,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6303,16 +6303,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9450,8 +9450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
